--- a/test/schizont_test.xlsx
+++ b/test/schizont_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\cytosieve\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD78866-1F05-4F9B-A379-D34696DA7937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A88122-3D59-4CAE-91B8-025D13C5A17F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="3690" windowWidth="18570" windowHeight="15435" xr2:uid="{53476C24-F98C-4C7A-AF28-AAF2964FF043}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Sample</t>
   </si>
@@ -79,15 +79,25 @@
   </si>
   <si>
     <t>5 genes</t>
+  </si>
+  <si>
+    <t>Filtered Reads</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>From: 29 genes that occur in other cell types, but not in schzonts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -139,12 +149,23 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -461,26 +482,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11992DB-D1C0-4204-9FAD-4FC46E771FD6}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,118 +511,173 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>30828026</v>
-      </c>
+      <c r="C2" s="9"/>
       <c r="D2" s="2">
         <v>30828026</v>
       </c>
-      <c r="E2" s="3">
-        <f>1-D2/C2</f>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
+        <f>D2-E2</f>
+        <v>30828026</v>
+      </c>
+      <c r="G2" s="7">
+        <f>1-F2/D2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
         <v>0.249034724200077</v>
       </c>
-      <c r="H2" s="4">
+      <c r="J2" s="3">
         <v>0.21841462215092999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="K2" s="3">
         <v>0.53255065364899301</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
         <v>30828026</v>
       </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E6" si="0">1-D3/C3</f>
-        <v>1</v>
+      <c r="E3" s="5">
+        <v>983</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F6" si="0">D3-E3</f>
+        <v>30827043</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G6" si="1">1-F3/D3</f>
+        <v>3.1886569707761936E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8"/>
+      <c r="D4" s="2">
         <v>30828026</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
+        <f>E3*5</f>
+        <v>4915</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30823111</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5943284853858763E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8"/>
+      <c r="D5" s="2">
         <v>30828026</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
+        <f>E3*10</f>
+        <v>9830</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30818196</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>3.1886569707706425E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="8"/>
+      <c r="D6" s="2">
         <v>30828026</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
+        <f>E3*29</f>
+        <v>28507</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+        <v>30799519</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>9.2471052152354183E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
